--- a/biology/Médecine/Samuel_Mitja_Rapoport/Samuel_Mitja_Rapoport.xlsx
+++ b/biology/Médecine/Samuel_Mitja_Rapoport/Samuel_Mitja_Rapoport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Mitja Rapoport, né le 14 novembre 1912 à Volotchysk dans l’Empire russe (aujourd’hui en Ukraine), mort le 7 juillet 2004 à Berlin, est, en tant que citoyen autrichien, directeur de l’Institut de chimie biologique et physiologique de l’université Humboldt à Berlin-Est et président de la Société scientifique Leibniz à Berlin. 
-Jusqu’en 1996 il a publié 666 travaux scientifiques ou y a pris part et on le considère comme l’un des plus célèbres biochimistes de son temps en Allemagne et à l’étranger. Il était aussi un communiste convaincu et actif, pour qui le socialisme était ce qui comptait avant tout[1]
+Jusqu’en 1996 il a publié 666 travaux scientifiques ou y a pris part et on le considère comme l’un des plus célèbres biochimistes de son temps en Allemagne et à l’étranger. Il était aussi un communiste convaincu et actif, pour qui le socialisme était ce qui comptait avant tout
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1912 à 1916, il grandit en Galicie-Volhynie à la frontière avec la Pologne et l'Autriche. Pendant la Première Guerre mondiale, sa famille juive se rendit à Odessa, où elle vécut la Révolution d'Octobre et la guerre civile russe. En 1920 elle s'enfuit à Vienne, de sorte que sa petite enfance fut marquée par la menace et par l'exil. À Vienne, il fit ses études secondaires puis étudia la chimie et la médecine et obtint son doctorat. En 1933, il entra à l'Institut de Chimie Médicale et fit ses débuts scientifiques avec la détermination des acides aminés dans le sérum sanguin.
 Lorsque l'annexion de l'Autriche par l'Allemagne nazie ne fut plus qu'une question de temps, Otto von Fürth lui fit obtenir en 1937 une bourse d’études à l'hôpital pour enfants de Cincinnati dans l'Ohio, aux États-Unis. Il fit venir dans cette ville sa première épouse, Maria Szécsi, avec qui il fut marié de 1937 à 1946. L'hôpital pédiatrique de Cincinnati était et reste encore l'un des centres pour le traitement et la recherche en médecine les plus reconnus aux États-Unis. C’est là que la première machine cœur-poumon a été mise au point. Il y travailla comme pédiatre et obtint son deuxième doctorat. En 1944, il rencontra Ingeborg Syllm une émigrée allemande, médecin à l'hôpital de Cincinnati, et l'épousa. Elle était née en 1912 au Cameroun, était la fille d'une pianiste juive, avait grandi à Hambourg, avait étudié la médecine puis s’était enfuie aux États-Unis en septembre 1938.
